--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.037</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.869</v>
+        <v>14.832</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.279</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.686</v>
+        <v>11.688</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.125</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.625</v>
+        <v>4.725</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.4089602105102</v>
+        <v>11.97574968853984</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.59881288251259</v>
+        <v>9.765471304425304</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.81023917415138</v>
+        <v>21.94199811795958</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.295294271977395</v>
+        <v>3.55410337824377</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.44110256432403</v>
+        <v>17.83945033172726</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.90778423693379</v>
+        <v>20.97202184699373</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.3586223596253</v>
+        <v>6.47028493099215</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.92783666656736</v>
+        <v>29.72538949992634</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>39.68847397477992</v>
+        <v>31.11584798763065</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.90078118387888</v>
+        <v>11.35578559438589</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42.72843281594245</v>
+        <v>16.22068840081526</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>46.95292006086226</v>
+        <v>19.55489391705056</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.74154413289493</v>
+        <v>23.28773823506991</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37.49014873377177</v>
+        <v>15.88187714403277</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>44.00079448103833</v>
+        <v>31.3472078325361</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.72695436190593</v>
+        <v>14.23400878532028</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.23873662133377</v>
+        <v>24.55778832144204</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.70087728846598</v>
+        <v>35.47768707685971</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.53071787424969</v>
+        <v>6.170127814559279</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.69099215352096</v>
+        <v>14.75638795019626</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.5751437888485</v>
+        <v>17.22342738418241</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20.1418380206994</v>
+        <v>0.8806985797280547</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>39.00099974194984</v>
+        <v>20.18046389556454</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11.84509465543814</v>
+        <v>18.6246933457485</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.11958587402437</v>
+        <v>22.67976029192877</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.32633548144748</v>
+        <v>24.27296119816257</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.83110715862661</v>
+        <v>1.685903515788389</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.08080227343935</v>
+        <v>29.32650561649993</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.54292209797033</v>
+        <v>28.48726150914159</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>18.01924449640152</v>
+        <v>4.985759545763408</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.68383991048197</v>
+        <v>38.46526785449304</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.44072838371972</v>
+        <v>35.37415844292327</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.56067118050213</v>
+        <v>37.6159712652657</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>44.4045523110579</v>
+        <v>41.41763948926085</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48.62985730461799</v>
+        <v>44.1535233137726</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.26247416498153</v>
+        <v>28.58938496809993</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39.14760351770816</v>
+        <v>38.29214876902979</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>45.64916112731333</v>
+        <v>44.18207687800619</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>16.19521741090892</v>
+        <v>19.07834363955927</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.79286406393215</v>
+        <v>36.14420183863155</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.2534030340945</v>
+        <v>41.46673483702893</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>12.09669848560761</v>
+        <v>8.406135612650043</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.36214065510779</v>
+        <v>33.35206879895225</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.2449222161501</v>
+        <v>43.76387785396724</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>40.79317249357722</v>
+        <v>52.47704381563881</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>12.01711244317573</v>
+        <v>5.911758720065965</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.29807742801569</v>
+        <v>17.31099859577183</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.50761880466543</v>
+        <v>22.5342725306659</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>9.038886135675133</v>
+        <v>0.8405476745720222</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.29607432827815</v>
+        <v>29.87709362649543</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.76226147128683</v>
+        <v>30.30765355220248</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>18.23734690995754</v>
+        <v>6.01171487772703</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.90772323713453</v>
+        <v>41.95581136709621</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>41.66764226642174</v>
+        <v>43.14388918646308</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36.77500606910829</v>
+        <v>42.68133763020386</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.61488124999985</v>
+        <v>45.34993600571744</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>48.84270673864135</v>
+        <v>51.64868257261512</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17.45794336791683</v>
+        <v>17.7112675961964</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>39.35992758832932</v>
+        <v>30.10071133297773</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>45.86347159426076</v>
+        <v>36.84570822842147</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.37052373783737</v>
+        <v>11.83084045473748</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.97429499355803</v>
+        <v>31.97535482768236</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.43840654456238</v>
+        <v>39.58101010920039</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12.30693263292306</v>
+        <v>5.831172671295541</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.5797727341043</v>
+        <v>26.95367370830226</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.4673746546177</v>
+        <v>43.14509085962807</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>22.05869559998346</v>
+        <v>4.941661912086097</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>41.01992737708134</v>
+        <v>46.4372198428547</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>11.2125293810881</v>
+        <v>2.843680244296131</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.46951301659333</v>
+        <v>10.56712946660631</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>30.69154432483074</v>
+        <v>21.48604998414818</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>8.18004563253516</v>
+        <v>1.773331802882048</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.4051327478272</v>
+        <v>27.89137830848375</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.88549121649448</v>
+        <v>34.34092698537324</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>17.31604411720371</v>
+        <v>2.230744888346976</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>35.96154935355273</v>
+        <v>39.67845853312183</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.73438651675252</v>
+        <v>43.2899652088289</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>35.88070004012882</v>
+        <v>34.97901184804867</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>43.72337840206637</v>
+        <v>39.05133625426473</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.96039570301419</v>
+        <v>44.7268562199839</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>16.61482995907224</v>
+        <v>15.54985803962068</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>38.47545270707027</v>
+        <v>24.91222256403445</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.9989769821092</v>
+        <v>40.04248219578227</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>15.54811074338921</v>
+        <v>9.014368640947826</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>31.12742334229884</v>
+        <v>27.19325842231348</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>35.60263928912947</v>
+        <v>39.63097689048941</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>11.42938811449029</v>
+        <v>6.625790283423417</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.66913351941273</v>
+        <v>26.34540601781906</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33.56970341470778</v>
+        <v>42.8018251208452</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>21.1162477735546</v>
+        <v>2.617138779416265</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>40.05202153707771</v>
+        <v>39.33643977921833</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>44.06353009144369</v>
+        <v>29.25537977738663</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38.25698215343119</v>
+        <v>22.15424438763229</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>46.63283225817324</v>
+        <v>41.21953023806442</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>51.1075404664405</v>
+        <v>46.78087041042799</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>19.11236965755614</v>
+        <v>5.909718153357574</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>41.77969692335797</v>
+        <v>18.23977604883389</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>48.20102490762897</v>
+        <v>26.67516627646685</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>21.05284018940628</v>
+        <v>11.28046272225789</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>37.58785109009379</v>
+        <v>19.75013556717607</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>42.26796760997374</v>
+        <v>32.26242838291859</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>17.27651691879654</v>
+        <v>2.196527681934647</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>36.08567621448469</v>
+        <v>10.38621358632317</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>41.00549186963462</v>
+        <v>17.11095324910467</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.68938630692616</v>
+        <v>-0.3513233891278666</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>48.55827858884641</v>
+        <v>20.2686635453424</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>53.9400964076414</v>
+        <v>37.40232921801372</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>48.6284909059717</v>
+        <v>21.83284481048019</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>57.22984491624764</v>
+        <v>46.07598056498956</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>62.04629705501883</v>
+        <v>53.6240917789267</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>27.06944179336467</v>
+        <v>2.255442870330516</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>51.70509815211547</v>
+        <v>18.12288517457694</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>58.05178833014127</v>
+        <v>30.57159410722002</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>45.85550509569001</v>
+        <v>64.72245726855297</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>39.9459449936156</v>
+        <v>54.7781649355751</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>48.33827925367071</v>
+        <v>68.21007100032006</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>52.81462296564576</v>
+        <v>74.34831613457712</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.66372570272265</v>
+        <v>20.20192236462559</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>43.47117597890681</v>
+        <v>64.03672341071299</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>49.88519003768004</v>
+        <v>65.63936984779889</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>22.58460652687229</v>
+        <v>24.84580940405937</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>39.20781876888172</v>
+        <v>41.5434861319174</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.88344063979527</v>
+        <v>47.49833076249995</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>18.90788485084254</v>
+        <v>9.217295863010801</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>37.82527569339493</v>
+        <v>41.01398408233862</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.74067937484232</v>
+        <v>48.54408471213189</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>30.4564401859477</v>
+        <v>9.434612185588087</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>50.42464583419437</v>
+        <v>64.29523265404825</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>55.80285472509231</v>
+        <v>73.50899309995071</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>50.39011146643651</v>
+        <v>76.94821075546068</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>59.0071456950883</v>
+        <v>86.81487306661975</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>63.82616350516536</v>
+        <v>91.02912631040493</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.68890906038612</v>
+        <v>26.7296444048933</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>53.46655609551036</v>
+        <v>77.31061363371478</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>59.8050736415936</v>
+        <v>80.13514154196343</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>46.08617556116949</v>
+        <v>68.03450049688172</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>40.16126105722995</v>
+        <v>43.578252447626</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>48.54929716625975</v>
+        <v>53.39742234957558</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>53.02829133578025</v>
+        <v>71.1192345419464</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20.86173817983761</v>
+        <v>12.71826905696902</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>43.68582077964988</v>
+        <v>57.1296978872384</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>22.77948816806698</v>
+        <v>14.62631842517032</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>39.40900532453173</v>
+        <v>35.70827993642132</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>44.0872147875463</v>
+        <v>46.23202291574833</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>19.13827156536949</v>
+        <v>5.830338324697674</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.06293537347997</v>
+        <v>37.67410216541421</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>42.9822747093698</v>
+        <v>48.85350600145681</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.69845870275075</v>
+        <v>4.651441748537209</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>50.67235087304625</v>
+        <v>59.75133362823988</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>56.0532598927939</v>
+        <v>78.42041277332723</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>50.62519821842408</v>
+        <v>69.0297062857704</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>59.23755754237818</v>
+        <v>78.43983776888379</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>64.05905703716043</v>
+        <v>92.74711402886027</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.90601340018448</v>
+        <v>14.6670738120006</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>53.69988746063593</v>
+        <v>67.77840342147789</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>60.04058823635138</v>
+        <v>77.21947509376264</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>45.12963011451705</v>
+        <v>62.37108032077805</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>39.24775108663176</v>
+        <v>27.67864008262936</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>47.63920841834022</v>
+        <v>36.10183026920675</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>52.12747684776726</v>
+        <v>52.64138262648531</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>19.99979594406387</v>
+        <v>10.71721519657977</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>42.78149326051256</v>
+        <v>48.74641127381069</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>49.21723315540959</v>
+        <v>58.37628414381932</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>21.94324253614981</v>
+        <v>11.68841145059906</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>38.54915419288897</v>
+        <v>34.04482241038296</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>43.24050941620681</v>
+        <v>49.51549686309747</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>18.24694565835033</v>
+        <v>7.730742335156279</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.13998903239514</v>
+        <v>37.23425710346986</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>42.07419993741771</v>
+        <v>52.26446525209474</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.74249688317853</v>
+        <v>2.643898426571624</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>49.69158009419385</v>
+        <v>53.27520406445167</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>55.0863040337048</v>
+        <v>76.57486583206654</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>49.70064077759302</v>
+        <v>56.49026502296557</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>58.31738599694608</v>
+        <v>70.58955763242433</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>63.14807488590849</v>
+        <v>91.77459158030567</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.02970479781226</v>
+        <v>13.00862968064438</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>52.78421148069595</v>
+        <v>64.67553221401772</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>59.14401456333514</v>
+        <v>79.89232343844157</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>37.26768024799379</v>
+        <v>13.80506710340203</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>52.02239358210469</v>
+        <v>32.05314563685474</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>55.84671786237963</v>
+        <v>44.28376854018798</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>34.92456180501307</v>
+        <v>2.394412513875881</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>51.71624691113383</v>
+        <v>38.01152172391391</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>55.70302218712272</v>
+        <v>45.01131872144759</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>45.18085917391826</v>
+        <v>6.77130143289077</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>63.12765686376287</v>
+        <v>70.49007820386726</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>67.46202779295319</v>
+        <v>74.39904287091332</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>59.97247946714496</v>
+        <v>36.79926678455455</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>67.23702162826622</v>
+        <v>45.80144625289313</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>70.74236734813344</v>
+        <v>48.63975522245662</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>40.23983972633603</v>
+        <v>17.40473676420724</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>61.10795553401768</v>
+        <v>28.5777524388122</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>67.0462761977731</v>
+        <v>54.62833758664182</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>39.22697607081667</v>
+        <v>16.87180434470183</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>54.18709403252881</v>
+        <v>33.09917743584809</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>58.21250288688801</v>
+        <v>37.58987162464233</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.79244318973989</v>
+        <v>-1.095588205170507</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>52.50411576064733</v>
+        <v>20.22959167051663</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>56.84217569892115</v>
+        <v>19.77567524705195</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>46.43955284096527</v>
+        <v>-0.3714397368279982</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>64.54881148662068</v>
+        <v>38.27718207251628</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>38.63783074299526</v>
+        <v>29.45147166598388</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>53.47236943632436</v>
+        <v>53.96500020826564</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>57.29157948754159</v>
+        <v>53.84907280018084</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.38826278466813</v>
+        <v>8.374964610208366</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>53.27840137003751</v>
+        <v>57.70345645549168</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>57.25981522004599</v>
+        <v>57.10563923464752</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>46.76186056534446</v>
+        <v>11.69401204953835</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>64.79835809887672</v>
+        <v>85.32512098682525</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>69.12845568200511</v>
+        <v>81.68445431253154</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>61.55046252485885</v>
+        <v>71.74993717178296</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>68.83037558146721</v>
+        <v>81.88751366028245</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>72.33538618951418</v>
+        <v>78.02639906734336</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.68576936050334</v>
+        <v>28.04038404131752</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>62.6823060160181</v>
+        <v>58.37400032775778</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>68.61162031631098</v>
+        <v>70.72748974100833</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40.62230447843922</v>
+        <v>26.27047430026189</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>55.66318504298803</v>
+        <v>48.30254256847304</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>59.68629765440465</v>
+        <v>46.22911022828573</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>37.27917127928431</v>
+        <v>3.895464245619735</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>54.09030405803816</v>
+        <v>41.48955274388527</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>58.42591619865419</v>
+        <v>43.10201383234559</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>48.04765471185588</v>
+        <v>7.159044218302647</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>66.24759168217929</v>
+        <v>68.74433742226958</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>38.78374414129247</v>
+        <v>9.775790515534617</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>53.62420623417325</v>
+        <v>39.7947484297338</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>57.44562818115167</v>
+        <v>42.78241623437419</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>36.56786838556908</v>
+        <v>4.43221309702848</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>53.46492400522873</v>
+        <v>54.14934608748131</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>57.44976055171113</v>
+        <v>53.92463008443424</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>46.94978966190879</v>
+        <v>8.403268886928185</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>64.99148471652568</v>
+        <v>81.80986903422075</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>69.3239699500258</v>
+        <v>81.06233486714234</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>61.7366543606166</v>
+        <v>79.60888477724424</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>69.01284481913585</v>
+        <v>89.7216120162762</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>72.52027009874514</v>
+        <v>85.2947007182284</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.85467251133224</v>
+        <v>9.605015924077865</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>62.86685850154262</v>
+        <v>44.48685918653049</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>68.797656390594</v>
+        <v>56.57186331222857</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>40.77217157844454</v>
+        <v>16.20874446569473</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>55.81867534249916</v>
+        <v>40.97037097141168</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>59.8447335930209</v>
+        <v>41.06450965062255</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>37.46196361544851</v>
+        <v>1.815323899539845</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>54.27995464387366</v>
+        <v>36.69856858334306</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>58.61968669742856</v>
+        <v>42.16908477214155</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>48.23954807153288</v>
+        <v>4.352205066590646</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>66.44437042631463</v>
+        <v>61.8727675669923</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>38.05980642940698</v>
+        <v>6.039505327970009</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>52.87832900675634</v>
+        <v>33.25301021885582</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>56.71163490053639</v>
+        <v>43.47589392168456</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>35.793917792935</v>
+        <v>6.660208383697494</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>52.66139229153452</v>
+        <v>53.14479719124876</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>56.65982878425654</v>
+        <v>61.802632983899</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>46.1199407897836</v>
+        <v>7.365375519950174</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>64.1389930016182</v>
+        <v>82.95332666295013</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>68.48377489267116</v>
+        <v>86.08953801069882</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>60.9298539077072</v>
+        <v>73.19606399250779</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>68.20846134680625</v>
+        <v>83.71988039362984</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>71.72436334097732</v>
+        <v>85.58702543415239</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>41.09409544703329</v>
+        <v>8.30293421657219</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>62.06814213693448</v>
+        <v>40.83842154365939</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>68.01748115633535</v>
+        <v>62.61537778714362</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>40.03118398412181</v>
+        <v>12.86425202321485</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>55.0552830735226</v>
+        <v>36.17403646897983</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>59.09191338720837</v>
+        <v>42.51190343045159</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>36.67020878764932</v>
+        <v>2.992516414557628</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>53.4576747770646</v>
+        <v>35.40481495648572</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>57.8098590040727</v>
+        <v>44.74243604771965</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>47.38963810467278</v>
+        <v>3.828680952586456</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>65.57123519946833</v>
+        <v>56.58134268849926</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>69.1284274731002</v>
+        <v>42.01782706933884</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>61.00141975167704</v>
+        <v>33.41765585702024</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>68.7208981336055</v>
+        <v>48.64071303410662</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>72.44578226824444</v>
+        <v>52.85300638444353</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>41.53191054506111</v>
+        <v>12.0334713086832</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>63.10802497092792</v>
+        <v>33.08410527843769</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>68.92936211277191</v>
+        <v>42.46248282494118</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>44.16732399135263</v>
+        <v>15.15970740782637</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>60.06066898341135</v>
+        <v>30.6845692553284</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>64.25302901698952</v>
+        <v>40.22660729015013</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>41.2182555149784</v>
+        <v>-1.763064953478409</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>59.40546664389276</v>
+        <v>19.90940469246823</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>63.73888539126059</v>
+        <v>25.89608551864358</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>53.42567983488546</v>
+        <v>1.633842618564753</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>72.45717177248703</v>
+        <v>43.23505060124138</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>77.29510017996446</v>
+        <v>60.45911023443484</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>69.74508064976422</v>
+        <v>40.48417291023395</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>77.69253141647172</v>
+        <v>57.21797475332724</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>81.68303141015475</v>
+        <v>64.76642511440002</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>48.06027717757721</v>
+        <v>10.17098177202199</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>71.46682486436239</v>
+        <v>34.71448094144604</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>77.21994420695096</v>
+        <v>49.69438424965745</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>70.82618242134444</v>
+        <v>72.1179226127567</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>62.60130155341314</v>
+        <v>65.9312525440821</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>70.33636386600098</v>
+        <v>77.08786883808131</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>74.06164931399807</v>
+        <v>76.71447868108055</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>43.00152738198967</v>
+        <v>24.81518380386385</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>64.70901212871439</v>
+        <v>74.35121138828148</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>70.52294028351461</v>
+        <v>73.05793241093143</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>45.61892559349479</v>
+        <v>27.54791272343321</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>61.59501790273305</v>
+        <v>49.67633969513874</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>65.78218911027369</v>
+        <v>49.14315824848292</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.76320791657646</v>
+        <v>3.377007716954839</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>61.05245443881558</v>
+        <v>47.78932272600075</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>65.38039371664362</v>
+        <v>48.57964530542597</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>55.09744256648845</v>
+        <v>7.144200741185859</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>74.22191625596463</v>
+        <v>78.71378070523997</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>79.05538320307414</v>
+        <v>81.34740374910953</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>71.40998259303095</v>
+        <v>85.35896459743735</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>79.37182906672585</v>
+        <v>92.15219518284721</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>83.36349336638764</v>
+        <v>90.95979415999449</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>49.59081306573803</v>
+        <v>28.08016932154005</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>73.13028381568306</v>
+        <v>85.44222897510879</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>78.87511776716424</v>
+        <v>84.91972241065605</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>71.02618056054546</v>
+        <v>72.46563935559119</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>62.78925673323254</v>
+        <v>61.57826721197733</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>70.52033865535134</v>
+        <v>71.63794108083073</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>74.24818579051804</v>
+        <v>77.3601195099034</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>43.17359619164757</v>
+        <v>13.95510268280002</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>64.89652756206993</v>
+        <v>68.46623135217916</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>70.71267897610475</v>
+        <v>69.26628039900547</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>45.78640969102677</v>
+        <v>15.03578906073149</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>61.7682906167419</v>
+        <v>41.57698851868493</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>65.95746814587538</v>
+        <v>44.34257648689562</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>42.96407169614819</v>
+        <v>-0.1027087020253425</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>61.26006036661766</v>
+        <v>45.2827843540904</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>65.5912874804755</v>
+        <v>47.72781135538295</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>55.30787009244191</v>
+        <v>1.801753990017399</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>74.43749525090892</v>
+        <v>73.43251352582735</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>79.27301359563778</v>
+        <v>82.18359212814761</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>71.61572026785529</v>
+        <v>83.70857753380183</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>79.57317294498631</v>
+        <v>91.28731753809276</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>83.56718651939299</v>
+        <v>95.6760971156987</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>49.78002598919601</v>
+        <v>12.87564275165476</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>73.33461815603485</v>
+        <v>78.7503213436282</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>79.08108625209593</v>
+        <v>81.34112002496352</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>70.16387465935455</v>
+        <v>71.54688642661981</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>61.96432843357719</v>
+        <v>45.39543351385012</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>69.69834872576831</v>
+        <v>57.29350193022017</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>73.43475798395566</v>
+        <v>64.25160736084166</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>42.39530478861703</v>
+        <v>12.64878123858027</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>64.07916361138497</v>
+        <v>61.97959991041039</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>69.91285028015044</v>
+        <v>70.3594616179019</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>45.03223145839162</v>
+        <v>9.920566576949991</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>60.99258033998186</v>
+        <v>38.77676072610741</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>65.19425460024786</v>
+        <v>47.67832682453601</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>42.1592280500908</v>
+        <v>0.6206623964056099</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>60.426119819501</v>
+        <v>43.68713147061109</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>64.77159299077248</v>
+        <v>51.99425070935706</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>54.44503509244652</v>
+        <v>-0.2853592501384661</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>73.55210392543906</v>
+        <v>68.58666714722654</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>78.4007889392023</v>
+        <v>83.82300967699791</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>70.78010501542666</v>
+        <v>73.81804322311226</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>78.74168834998028</v>
+        <v>84.86226450613555</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>82.74410901857365</v>
+        <v>95.71774575897382</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>48.98794210831867</v>
+        <v>9.792534396903235</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>72.50635471639241</v>
+        <v>75.49074355328976</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>78.27056094742258</v>
+        <v>86.35890836729104</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>31.74934701612554</v>
+        <v>15.34137612442076</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>45.90396197048351</v>
+        <v>13.14801408128733</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>50.11545949843238</v>
+        <v>22.90805161215751</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.88368602139458</v>
+        <v>3.226525575090385</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>44.87341273018261</v>
+        <v>14.65405968721777</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>49.35428375355133</v>
+        <v>17.25512330050388</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>38.72717848392664</v>
+        <v>7.591312618957765</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>56.07851256060662</v>
+        <v>28.50857725696977</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>60.83476736902755</v>
+        <v>29.15717257057712</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>53.8020350928684</v>
+        <v>13.34307241882559</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>61.08407966578275</v>
+        <v>17.73408192699168</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>65.18674494244767</v>
+        <v>20.04881155716526</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>35.42997999135708</v>
+        <v>23.88819623858959</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>55.64026514282238</v>
+        <v>19.42645131132088</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>62.07798135330871</v>
+        <v>34.02624689480223</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>34.72046087216653</v>
+        <v>12.16296172434021</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>49.17190858328625</v>
+        <v>20.39518132784008</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>53.63306437303121</v>
+        <v>30.68964279810296</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.79643632273413</v>
+        <v>2.29125075355795</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>46.7800886027024</v>
+        <v>7.652370703545063</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>51.67012956068206</v>
+        <v>11.03733788628416</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>41.07795531377437</v>
+        <v>-1.054974882225615</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>58.69424264577959</v>
+        <v>12.30853975306746</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>33.1701218783921</v>
+        <v>19.62150718730141</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>47.40565555257574</v>
+        <v>23.88731768857095</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>51.61320901474048</v>
+        <v>24.58353005503653</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.40197111365373</v>
+        <v>1.344077018080604</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>46.49100655696166</v>
+        <v>26.91944441340187</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>50.96825830836573</v>
+        <v>26.25965586773108</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>40.36736155516996</v>
+        <v>5.626021778879917</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>57.80987601758968</v>
+        <v>37.67621157100943</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>62.5631864222214</v>
+        <v>35.26143278098986</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>55.43684227989242</v>
+        <v>39.71701001250567</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>62.73451408230518</v>
+        <v>44.16099408621532</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>66.83785026970838</v>
+        <v>45.43505273533546</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>36.9313875522155</v>
+        <v>29.40623692793814</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>57.27230136914083</v>
+        <v>45.17204273807705</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>63.70188664682123</v>
+        <v>51.25457259718758</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.16991787663437</v>
+        <v>15.79331910224787</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>50.70343073313999</v>
+        <v>30.97257760706282</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>55.1635891868907</v>
+        <v>37.55724184575082</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.34150707411364</v>
+        <v>4.722328279711434</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>48.4256415238177</v>
+        <v>27.00600084690994</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>53.31513462519792</v>
+        <v>39.26157788444878</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>42.74926915648242</v>
+        <v>5.38032739503327</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>60.45793347268523</v>
+        <v>44.60699537717599</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>33.32213659790229</v>
+        <v>6.804288445763589</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>47.56406430993963</v>
+        <v>17.27930000490136</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>51.77445733894962</v>
+        <v>21.85534298474903</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.5883776158344</v>
+        <v>0.1587972353287412</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>46.68473735901949</v>
+        <v>26.05998549194558</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>51.16614987529805</v>
+        <v>27.44501262143401</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>40.56288221371399</v>
+        <v>5.499798657949398</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>58.01116191247363</v>
+        <v>38.72888584916492</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>62.76754309754748</v>
+        <v>41.34590205598524</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>55.63034455705142</v>
+        <v>43.67095821640975</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>62.92422113475298</v>
+        <v>45.96471580816158</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>67.03011081381332</v>
+        <v>50.9146175379381</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>37.10681750548905</v>
+        <v>17.1964582380388</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>57.46423560982841</v>
+        <v>33.7985761553833</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>63.89596749018244</v>
+        <v>41.28172584529891</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.32576991169331</v>
+        <v>8.06427596548442</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>50.86531448184125</v>
+        <v>25.26860163551427</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>55.32906804621918</v>
+        <v>34.9922114012634</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>32.53098958745552</v>
+        <v>1.52759579854461</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>48.62232959616261</v>
+        <v>19.11419702958511</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>53.51671715278318</v>
+        <v>38.0088859533931</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>42.94867862728167</v>
+        <v>1.82341583058518</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>60.66272128862932</v>
+        <v>35.81603862570097</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.5570773688335</v>
+        <v>4.443030026896942</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>46.7754800030321</v>
+        <v>11.48402318615255</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>50.9977933939275</v>
+        <v>20.70372595844041</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.77039102696631</v>
+        <v>0.04834149485383321</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>45.83539538749008</v>
+        <v>22.40037639343037</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>50.33025485373464</v>
+        <v>29.71729330126764</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>39.68532280913636</v>
+        <v>1.631023410708174</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>57.10917535977823</v>
+        <v>35.64258856464611</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>61.87784770723456</v>
+        <v>39.92470099306337</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>54.77752888592658</v>
+        <v>34.61160790105129</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>62.07369138930539</v>
+        <v>37.19390957564995</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>66.18857678479621</v>
+        <v>41.83665447561495</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.3032107872757</v>
+        <v>14.36289111569361</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>56.62011587867479</v>
+        <v>26.93895986432379</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>63.07102841414811</v>
+        <v>41.00087351094989</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.54322509824818</v>
+        <v>6.259114847108151</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>50.05877594178911</v>
+        <v>21.42735951808859</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>54.53314900668492</v>
+        <v>34.92574186011935</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.69465949130836</v>
+        <v>2.441391599293805</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>47.7536868375363</v>
+        <v>17.98719020884036</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>52.66038936264085</v>
+        <v>36.86635897370365</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>42.05042083594027</v>
+        <v>0.461647892169271</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>59.73946248673814</v>
+        <v>29.39758564216222</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>63.75141581362922</v>
+        <v>22.09754298673574</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>55.85334673538699</v>
+        <v>17.07671679968852</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>63.66084102391961</v>
+        <v>34.16806142393611</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>68.01263492278099</v>
+        <v>40.87207701412683</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>37.48173756306688</v>
+        <v>1.765869218460484</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>58.57183243703216</v>
+        <v>10.69841876690719</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>64.91775164665437</v>
+        <v>20.51174552425225</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>40.67678053006801</v>
+        <v>11.3318058418958</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>56.13953985901727</v>
+        <v>18.58441104401669</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>60.80176983121252</v>
+        <v>29.01916454032035</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>37.17496457377376</v>
+        <v>-0.9779105900403238</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>54.77396882584789</v>
+        <v>5.022924240588978</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>59.69191989353083</v>
+        <v>11.33000666658561</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>49.19352947907755</v>
+        <v>0.001817869194102428</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>67.81391795646182</v>
+        <v>16.51186723066482</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>73.16623212717676</v>
+        <v>30.81099888219966</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>65.77034414396074</v>
+        <v>18.61876517909752</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>73.79377328872233</v>
+        <v>39.02106097877974</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>78.46651368954264</v>
+        <v>47.34958909745116</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.07921815381101</v>
+        <v>2.927310777178949</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>68.08032794888024</v>
+        <v>14.78945150823964</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>74.3593169623869</v>
+        <v>26.2608257411073</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>65.5155595984165</v>
+        <v>59.75535189052193</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>57.51382614679071</v>
+        <v>48.06113530626845</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>65.33716167511179</v>
+        <v>62.09103088862832</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>69.69042966850807</v>
+        <v>69.01721519550819</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>39.01012210003698</v>
+        <v>16.17895005421077</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>60.23423840344417</v>
+        <v>58.08336469946014</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>66.57372253623339</v>
+        <v>62.42491909102636</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.18965147475898</v>
+        <v>24.26110410190553</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>57.73677121866918</v>
+        <v>39.38855638972741</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>62.39529417299963</v>
+        <v>45.12545607672919</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>38.78531584031758</v>
+        <v>7.054043116433203</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>56.48785784919725</v>
+        <v>36.75895060559566</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>61.4023861708961</v>
+        <v>45.04774892510886</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>50.93626180846866</v>
+        <v>10.96338698574019</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>69.65162459776252</v>
+        <v>60.95166673210969</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>75.00119657365529</v>
+        <v>69.4056308419834</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>67.50323895982422</v>
+        <v>73.70306855929498</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>75.54176447225761</v>
+        <v>82.2320569456456</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>80.2168616636751</v>
+        <v>87.36540352154319</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>46.67556507492249</v>
+        <v>29.53975674602436</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>69.81248770642881</v>
+        <v>76.06904115466392</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>76.08427516085416</v>
+        <v>79.59922175592969</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>65.72427223096423</v>
+        <v>61.7217103015978</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>57.70899383206245</v>
+        <v>35.81227898284862</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>65.52822481277447</v>
+        <v>46.22705733068051</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>69.88418122709534</v>
+        <v>65.04380365521405</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>39.1887184918092</v>
+        <v>7.354634269965182</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>60.42906806522124</v>
+        <v>48.56516877603504</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>66.77147969330233</v>
+        <v>58.15534663070984</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>42.36484783650766</v>
+        <v>13.60683934474202</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>57.91819712075179</v>
+        <v>32.31703529139877</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>62.57937078903303</v>
+        <v>43.41739529185378</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>38.99469798641265</v>
+        <v>2.802479931109815</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>56.70436517656136</v>
+        <v>31.86226060476997</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>61.62292889797617</v>
+        <v>44.76704816041179</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>51.15610725672069</v>
+        <v>4.802891008503696</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>69.87713581225434</v>
+        <v>53.91874248162078</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>75.22947174020904</v>
+        <v>73.21418385136707</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>67.71792499689609</v>
+        <v>64.18651059740913</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>75.75204111099886</v>
+        <v>72.43092036581572</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>80.42964198799054</v>
+        <v>88.5263358878542</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>46.87300513674703</v>
+        <v>15.81268736020701</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>70.02582976914672</v>
+        <v>63.86338037071778</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>76.29994256225334</v>
+        <v>75.00702697796829</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>64.81184695062889</v>
+        <v>55.72039298781545</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>56.83743483746579</v>
+        <v>21.08323123999882</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>64.65955735692128</v>
+        <v>28.42791489988502</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>69.02459443864076</v>
+        <v>45.68089978811442</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.36668522755645</v>
+        <v>5.147177391375283</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>59.56555213188192</v>
+        <v>38.56077206724427</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>65.92616382557588</v>
+        <v>50.98500306782148</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>41.56724838659554</v>
+        <v>10.60777861253357</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>57.09745140814605</v>
+        <v>30.98213268616261</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>61.77112399303761</v>
+        <v>45.62643711931879</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.14337027704465</v>
+        <v>3.627219906689501</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>55.82213149359394</v>
+        <v>30.19268488322619</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>60.75477024376189</v>
+        <v>46.09675468375353</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>50.24297983477395</v>
+        <v>2.238994103552738</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>68.93966866816194</v>
+        <v>47.26528715588343</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>74.30509994049142</v>
+        <v>69.77264749395889</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>66.8339908667775</v>
+        <v>50.77825805697533</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>74.87192299403031</v>
+        <v>62.14386682683901</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>79.55851404385233</v>
+        <v>84.26151084450299</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>46.03547432467465</v>
+        <v>11.73284847266653</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>69.14978363807964</v>
+        <v>58.56534257023189</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>75.44218750079504</v>
+        <v>74.03522003299257</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>6.277122787637486</v>
+        <v>14.94758400466397</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>20.4402762211239</v>
+        <v>12.76459835393018</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>24.62471481635789</v>
+        <v>20.8145830991066</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>3.023780637358724</v>
+        <v>3.385894062432605</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.01926238285183</v>
+        <v>11.31659841566309</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>23.46181243454852</v>
+        <v>13.50194973925747</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.29558036612614</v>
+        <v>7.350191086427323</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.64375700362618</v>
+        <v>24.27748828015307</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>33.3730762436827</v>
+        <v>24.7378072355687</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.02153564303563</v>
+        <v>11.27593340384715</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.29325438323169</v>
+        <v>16.28998156027313</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>40.28293445776087</v>
+        <v>18.56581856408434</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>11.09434385826606</v>
+        <v>17.62020328926508</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.38061735563218</v>
+        <v>12.61579825295949</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>37.71210181849131</v>
+        <v>23.22987421080915</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>10.05968128229387</v>
+        <v>13.06044384687964</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.52162994354524</v>
+        <v>22.51484720053211</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.95658195084448</v>
+        <v>32.19265909439647</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>5.75862436455653</v>
+        <v>2.732216592919208</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>21.75748513973795</v>
+        <v>8.787471963251562</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>26.61030389886321</v>
+        <v>12.86324081138716</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>14.52629115163485</v>
+        <v>0.9696720646475789</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>32.14105510785263</v>
+        <v>15.40070428723039</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.643371963768443</v>
+        <v>18.53853274698054</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.88695156421587</v>
+        <v>22.35263285478885</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>26.06744956196851</v>
+        <v>22.31964400086707</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>4.485813966951886</v>
+        <v>1.722199689954728</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>20.57993063469821</v>
+        <v>22.63395777872205</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.0188128043818</v>
+        <v>22.05632315150693</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>12.87594894284689</v>
+        <v>5.191875171709135</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.31470265250947</v>
+        <v>32.44441832812268</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>35.04107689215141</v>
+        <v>30.26725567944786</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.60108334027218</v>
+        <v>34.30961598564757</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.88860456316315</v>
+        <v>39.67046738109377</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>41.87871565921402</v>
+        <v>40.41608574960268</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>12.54200078640515</v>
+        <v>21.55918173266485</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.95794657796889</v>
+        <v>35.24306800566865</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>39.28115569284785</v>
+        <v>38.36502419259369</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>11.45565374562679</v>
+        <v>16.5960392903053</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.99918885040197</v>
+        <v>32.74674370865615</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>30.4331429053237</v>
+        <v>39.04991175369805</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>7.248610719232223</v>
+        <v>5.555303689755551</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.34730688592371</v>
+        <v>27.51595190579055</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.19953262341487</v>
+        <v>39.29073105950781</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.13901498306253</v>
+        <v>7.044054466693744</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.84557250588708</v>
+        <v>45.39516851097213</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>7.807360991979101</v>
+        <v>5.965409440357298</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.05719182973178</v>
+        <v>14.71783318886322</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.24052647017982</v>
+        <v>18.67896889798248</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.684208616489107</v>
+        <v>0.07927771341412893</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.78552562081089</v>
+        <v>20.84818516380201</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.22854216136484</v>
+        <v>22.41985719504062</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>13.08411993302939</v>
+        <v>4.409753875955865</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>30.52846859289247</v>
+        <v>31.75294978515978</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.25791530325936</v>
+        <v>34.74407876854872</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.80579134659053</v>
+        <v>37.28518317430022</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.08946995181415</v>
+        <v>40.86477473031773</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>42.08225318024922</v>
+        <v>44.81454334798181</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>12.72857204814804</v>
+        <v>9.584966031401237</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.1606106476607</v>
+        <v>23.72271430021136</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>39.48596574543706</v>
+        <v>28.59453180023712</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>11.62284684952544</v>
+        <v>8.835714249494522</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.17226091875266</v>
+        <v>26.27920733300651</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.60980950977308</v>
+        <v>36.07230107430568</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>7.449469122447523</v>
+        <v>2.420197529488327</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.55523166248121</v>
+        <v>19.96458901579954</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.41232696002192</v>
+        <v>38.03079514261492</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>16.35040705266061</v>
+        <v>3.417947284241354</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.06216401976596</v>
+        <v>36.09285706222656</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>7.035259671025253</v>
+        <v>4.064194407273597</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>21.26182496243732</v>
+        <v>9.66623465306602</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.45705590319261</v>
+        <v>17.91574593080617</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>3.85950044325987</v>
+        <v>-0.07543066176820901</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.92983583230714</v>
+        <v>17.46302727482144</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.38627949037438</v>
+        <v>24.57682361644058</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>12.19953743065784</v>
+        <v>1.492874445320105</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.61975979231836</v>
+        <v>29.5737619470326</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.36148083576271</v>
+        <v>34.1168401692281</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.94739334399584</v>
+        <v>29.49992277848199</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>37.2332404040216</v>
+        <v>33.12000043753183</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>41.23498018227299</v>
+        <v>37.45967313954129</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>11.91922760908782</v>
+        <v>7.736389367184692</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.31140066235508</v>
+        <v>18.41202129039582</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>38.655798071737</v>
+        <v>28.65056283295262</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>10.83386102080638</v>
+        <v>7.585482150502454</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.35952896696379</v>
+        <v>23.00339412433788</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.80767740625237</v>
+        <v>36.33053425894048</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>6.606957961897438</v>
+        <v>3.311991294042198</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.68077565404004</v>
+        <v>18.71445238255554</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>27.55016254562263</v>
+        <v>36.94665551901541</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>15.44572378508797</v>
+        <v>2.872993979230664</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.13276331301797</v>
+        <v>30.76076761507856</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>37.1714241292429</v>
+        <v>24.99705356852196</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>31.86259111144535</v>
+        <v>20.24905077803845</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>39.65194254668332</v>
+        <v>36.62159032476943</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>43.88765945813464</v>
+        <v>43.64294535272039</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>13.94945109422677</v>
+        <v>3.187721617124367</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>35.12149890946354</v>
+        <v>15.41597922834796</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>41.36475693112482</v>
+        <v>24.49317403703938</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>16.80610031483445</v>
+        <v>11.35940366036593</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.27884491932151</v>
+        <v>20.44200973207239</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>36.90759504833824</v>
+        <v>30.35438677882587</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>12.99835551441967</v>
+        <v>-1.369918286279624</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.60247165465596</v>
+        <v>5.204113326793905</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>35.47525194545858</v>
+        <v>12.07980422114458</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>23.54148788955987</v>
+        <v>0.9192890631658699</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>42.16151884407654</v>
+        <v>18.52452838590153</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>47.47678501441265</v>
+        <v>31.1664198572027</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42.62309634015124</v>
+        <v>21.28395266839748</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>50.62511412590579</v>
+        <v>40.98269598317465</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>55.18222176465101</v>
+        <v>47.93269601609095</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>22.36946668368975</v>
+        <v>3.929692989949778</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.44801050772809</v>
+        <v>17.8298942749178</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>51.64228104591096</v>
+        <v>27.715236567724</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.87638860837543</v>
+        <v>59.56097927312751</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.46900281527309</v>
+        <v>48.64660258322529</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>41.27441932158052</v>
+        <v>62.35453615465354</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>45.51136910337134</v>
+        <v>68.87550569508153</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.42521913437046</v>
+        <v>16.17013561857403</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>36.73039715620391</v>
+        <v>59.17150594888607</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.96704027546852</v>
+        <v>62.8801335286615</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>18.2665780806338</v>
+        <v>23.73376190761548</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>33.82310547349782</v>
+        <v>40.5246446935346</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.4481313342466</v>
+        <v>46.00237189360057</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>14.55464347520098</v>
+        <v>7.65649187491184</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.26151142452856</v>
+        <v>36.44591155677955</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>37.13080468751999</v>
+        <v>45.06165741792253</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.22673279715883</v>
+        <v>12.35800642927055</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>43.94106096842423</v>
+        <v>60.93560132832656</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>49.2535421105401</v>
+        <v>67.83386059509449</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.30295344554109</v>
+        <v>72.06572689952918</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>52.32010857333737</v>
+        <v>81.90221748671675</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>56.87934999178139</v>
+        <v>85.18513278153819</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>23.91426505977484</v>
+        <v>29.63391639610518</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>47.12757221474514</v>
+        <v>76.37669171483708</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>53.31454196934556</v>
+        <v>78.82469042291697</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>39.096909902926</v>
+        <v>60.84800626617</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.67478800159711</v>
+        <v>37.36462748826125</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>41.47605656563078</v>
+        <v>48.31859319103343</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>45.71582332054682</v>
+        <v>65.2836304329345</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>15.61436267683754</v>
+        <v>7.661730147597655</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.93534223862881</v>
+        <v>50.12789602760289</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>43.17491966453586</v>
+        <v>59.24459974305253</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>18.4523532229449</v>
+        <v>13.52326152860165</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>34.01495978370649</v>
+        <v>33.26975005651022</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>38.64263727357114</v>
+        <v>44.09326570281496</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>14.7745544549367</v>
+        <v>3.743451524140276</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>32.48841068769472</v>
+        <v>31.94047522637782</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>37.36171460266208</v>
+        <v>44.98750996431312</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.45768337897218</v>
+        <v>6.641584223932639</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>44.17750230876375</v>
+        <v>53.93235686425344</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>49.49275241701251</v>
+        <v>71.27633206202702</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>44.52744640872826</v>
+        <v>63.42582241043574</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>52.54014094185987</v>
+        <v>73.41944956958631</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>57.10199783168567</v>
+        <v>86.49512225158651</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>24.12144592857323</v>
+        <v>16.87532554469908</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>47.35024841378099</v>
+        <v>65.46278600692534</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>53.5395475850956</v>
+        <v>75.27554808702368</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>38.17832975814333</v>
+        <v>56.22465123593071</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.79813408265674</v>
+        <v>24.08661221910283</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.6021387011977</v>
+        <v>32.81876490285079</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>44.85094241007778</v>
+        <v>48.19916260741215</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>14.78713673273004</v>
+        <v>6.253301433670224</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.06724053325684</v>
+        <v>41.30125625893957</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>42.32490558451448</v>
+        <v>53.13363404942109</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>17.64873115291624</v>
+        <v>11.48944678379904</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>33.1885025045128</v>
+        <v>32.66120707997273</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>37.82865599214952</v>
+        <v>46.66536063055678</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>13.91762456042605</v>
+        <v>4.671382500064095</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.60101502710549</v>
+        <v>30.56597664553827</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>36.48836878420801</v>
+        <v>46.09746077846903</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>24.53870195395432</v>
+        <v>5.111942927579864</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.23452865761804</v>
+        <v>48.9039989259168</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>48.56286545343956</v>
+        <v>69.13004247145503</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43.63893574923807</v>
+        <v>52.40218676909768</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>51.65539883298561</v>
+        <v>64.96418162077219</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.22618992251619</v>
+        <v>83.22365866800291</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>23.27918298095459</v>
+        <v>13.5116597095416</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>46.47017244959336</v>
+        <v>60.84357528067937</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>52.67764196330989</v>
+        <v>74.13551281992204</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>5.976070933229538</v>
+        <v>12.81086922532522</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>21.39297731259187</v>
+        <v>19.92105709125794</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.79711547908489</v>
+        <v>30.76934569758647</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>2.72069155712518</v>
+        <v>-1.349831642619158</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.12558566390216</v>
+        <v>13.78162068269048</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>24.76558139588337</v>
+        <v>19.09186939979824</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>11.38597418461686</v>
+        <v>1.737702418333001</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>30.25197080704902</v>
+        <v>38.59269160490714</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>35.24941455008805</v>
+        <v>41.39654306332078</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>30.69168559164449</v>
+        <v>22.54929274867789</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>38.49654762424019</v>
+        <v>26.70339679139011</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>42.63350378375451</v>
+        <v>29.38557417709973</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>10.99787505020575</v>
+        <v>9.520293077610944</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>33.04275906567945</v>
+        <v>19.9307741032186</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>39.74445147703047</v>
+        <v>34.05661741504061</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>9.563166400067979</v>
+        <v>13.32420289522978</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.26833891117962</v>
+        <v>25.99291430513777</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.91695417704989</v>
+        <v>32.32295886127785</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>5.191169925567388</v>
+        <v>0.1229392790778583</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>22.57636732704164</v>
+        <v>10.93409113289052</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>27.62668191935173</v>
+        <v>10.47212079284729</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>14.36448922475659</v>
+        <v>-2.120638749768396</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>33.48217513054496</v>
+        <v>22.56897840297268</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>7.431888770705276</v>
+        <v>22.00806937703267</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.93561546778329</v>
+        <v>36.93167325183703</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>27.33483818342018</v>
+        <v>37.98531353109279</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>4.279235520877032</v>
+        <v>4.074233958414219</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>21.79096329917618</v>
+        <v>36.23819024184239</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.42611225371035</v>
+        <v>37.03773680861357</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>13.07002887833354</v>
+        <v>6.02194805935245</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>32.03365631712479</v>
+        <v>55.3380561794136</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>37.02722855036421</v>
+        <v>54.14905853428545</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>32.37534207107497</v>
+        <v>56.04125374096974</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>40.19710520874361</v>
+        <v>60.55706609294725</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>44.33470046610162</v>
+        <v>60.99039502076726</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>12.53968756169362</v>
+        <v>19.97286309377717</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>34.72448857108873</v>
+        <v>54.27481027826771</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>41.41659676622852</v>
+        <v>59.62288226826704</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>11.04902753426193</v>
+        <v>18.27725352527912</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>26.84221066731019</v>
+        <v>38.53081662064891</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>31.4890245898674</v>
+        <v>39.99196329540717</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>6.777694983178892</v>
+        <v>4.24349260525273</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>24.27100075790421</v>
+        <v>33.99960740507814</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.3196644554189</v>
+        <v>38.57097377057524</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>16.08116316581022</v>
+        <v>4.805674889918851</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.29772707089572</v>
+        <v>55.40744062437349</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>7.609812181674743</v>
+        <v>7.621858984963218</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.12025102321026</v>
+        <v>26.7522187038367</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.52220937270739</v>
+        <v>32.15095920347559</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>4.494142360263931</v>
+        <v>1.871077218809436</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.01372605082223</v>
+        <v>32.96712904941802</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.65308426087054</v>
+        <v>36.4534642104846</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>13.29538827949923</v>
+        <v>5.934289819031662</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.26496543923565</v>
+        <v>53.54969408395172</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>37.26148056797307</v>
+        <v>57.41721687193938</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.59675360450166</v>
+        <v>60.03795005635704</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>40.41448052213988</v>
+        <v>62.84690348173228</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.55489315623498</v>
+        <v>66.26778639303444</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>12.74184876131316</v>
+        <v>6.331088551069531</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.94389060738698</v>
+        <v>40.24585222697587</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>41.63787807751536</v>
+        <v>47.37100692929143</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>11.23038216873996</v>
+        <v>11.34613980992667</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.02989237619731</v>
+        <v>32.55430161710356</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.68025836454765</v>
+        <v>37.59112293242015</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>6.995187365730684</v>
+        <v>3.042320077060211</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>24.49622915474701</v>
+        <v>28.05565646661831</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.54987517822084</v>
+        <v>38.81989850143587</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>16.30990397882629</v>
+        <v>3.895194772265896</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>35.5320078253638</v>
+        <v>47.71145330359982</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>6.785313434561465</v>
+        <v>4.874412681042674</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>22.27077258097678</v>
+        <v>19.93703413491212</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>26.68580031324579</v>
+        <v>31.98282090812354</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>3.613489920887446</v>
+        <v>0.2379133196868466</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>21.09953643685853</v>
+        <v>24.81972148446487</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.75374655781052</v>
+        <v>38.69681757459831</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>12.35097971171989</v>
+        <v>0.9073137383860868</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>31.2947363993035</v>
+        <v>48.58450749275654</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.30476617606445</v>
+        <v>55.94828982587263</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>31.68069290674924</v>
+        <v>49.68384026411727</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>39.50079947463919</v>
+        <v>53.8419179328074</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>43.6504032775087</v>
+        <v>60.10771157653058</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>11.87800790863103</v>
+        <v>3.324818871931978</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.03725203441726</v>
+        <v>32.38355993256972</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>40.75189146318885</v>
+        <v>48.1582147328423</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>10.38798461884728</v>
+        <v>6.877215708731157</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.16198154822612</v>
+        <v>25.15313343344331</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.82401204179497</v>
+        <v>35.72546437732292</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>6.095750091737893</v>
+        <v>-0.0293683942098184</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.5621964272346</v>
+        <v>20.19382361052491</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.62948161006781</v>
+        <v>35.01353296572517</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>15.34424940451278</v>
+        <v>-1.231439198134545</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.53987969145599</v>
+        <v>36.23001567572668</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>38.77340144153425</v>
+        <v>27.75923364688944</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.3090706030527</v>
+        <v>23.08325475846484</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>41.63410762731388</v>
+        <v>37.39329236531432</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>46.0118413207741</v>
+        <v>39.97158863170547</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>13.73333906375301</v>
+        <v>3.64531758302531</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>36.63862459160055</v>
+        <v>15.21783129904581</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>43.26060688571556</v>
+        <v>26.07114666728208</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>16.28598374252652</v>
+        <v>10.70920212887976</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>33.07571889924929</v>
+        <v>21.1487364485957</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>37.94149531900045</v>
+        <v>32.53750032123516</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>12.40525724091492</v>
+        <v>-2.846162329038197</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.50127664866668</v>
+        <v>8.664783303485063</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.58245895640487</v>
+        <v>14.48303450556609</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.43121138630002</v>
+        <v>-1.084863049816708</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>43.62294116805656</v>
+        <v>23.34639871803425</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>49.23418682864149</v>
+        <v>40.49886680555667</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>44.23766290935755</v>
+        <v>26.23498422466194</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>52.84083937985047</v>
+        <v>45.3438667887073</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>57.56206283822798</v>
+        <v>53.43539758116403</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.16621742803171</v>
+        <v>2.153054353258216</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>47.16011948553054</v>
+        <v>20.41237259515858</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>53.72231643972831</v>
+        <v>34.65830085683382</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>40.58868274857176</v>
+        <v>63.43991427902409</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>35.01967036971453</v>
+        <v>55.1007727042513</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>43.36194762938621</v>
+        <v>66.03252095831303</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>47.7411526985417</v>
+        <v>66.72259359765832</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.30355570234634</v>
+        <v>15.48917358503918</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>38.35236282116067</v>
+        <v>61.34789110973833</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>44.96654271696762</v>
+        <v>64.76982994738952</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>17.83847624943978</v>
+        <v>21.78911407051849</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>34.71843250710136</v>
+        <v>40.94143541256632</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>39.57940943778704</v>
+        <v>45.10028258738659</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>14.06030158925536</v>
+        <v>4.763982090120471</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>33.2673237157588</v>
+        <v>42.1036556205219</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.34371669158826</v>
+        <v>46.16367434115098</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.22290456456228</v>
+        <v>7.529754545034809</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>45.51606739497251</v>
+        <v>65.45872205744951</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>51.1234620492918</v>
+        <v>72.53822613669627</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>46.02444266736945</v>
+        <v>77.20030852235357</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>54.64356095979766</v>
+        <v>86.03479395533972</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>59.36715954852094</v>
+        <v>89.75108794882348</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>23.80800909355366</v>
+        <v>22.28476179581324</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>48.94695900334911</v>
+        <v>79.35121569138775</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>55.50061227046317</v>
+        <v>81.78257307741913</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>40.82683452282541</v>
+        <v>66.13814032946956</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>35.24216503471173</v>
+        <v>47.41616298117363</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>43.58009668323162</v>
+        <v>55.40925611138142</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>47.96229382707051</v>
+        <v>66.22202680581609</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.50835534610587</v>
+        <v>8.050695325947093</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>38.5741280797946</v>
+        <v>53.72098412024614</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>45.19102650478997</v>
+        <v>61.76667981537252</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>18.0390878310909</v>
+        <v>11.84358977929789</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.92555323497574</v>
+        <v>33.51317617086993</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>39.78906457576555</v>
+        <v>43.14221055601601</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>14.29748588090713</v>
+        <v>1.521577459344829</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>33.51209667210141</v>
+        <v>37.7429181766626</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>38.59256827662249</v>
+        <v>46.15674693527346</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.47186938613724</v>
+        <v>3.503993196452402</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>45.77086225144566</v>
+        <v>59.07458360693705</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>51.38086337231638</v>
+        <v>76.28303344680114</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>46.26632160459985</v>
+        <v>70.16843329376431</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>54.88066243154937</v>
+        <v>79.05047919704484</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>59.60704240013708</v>
+        <v>92.93666483863768</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>24.03151821246828</v>
+        <v>10.09409371156082</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>49.18703170626804</v>
+        <v>69.10252948191621</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>55.74278649244508</v>
+        <v>78.16759946140149</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>39.84663710632444</v>
+        <v>57.49517842352084</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>34.30680214199818</v>
+        <v>27.00915158304247</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>42.64763660976599</v>
+        <v>35.09492372331755</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>47.03908074123133</v>
+        <v>45.58079375998798</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>14.62569136314144</v>
+        <v>3.16878042139038</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>37.64748554299931</v>
+        <v>38.20826827164555</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>44.28404036483805</v>
+        <v>54.04329777717405</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>17.18144171137731</v>
+        <v>7.053272538252592</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>34.04345979751329</v>
+        <v>29.54617280156634</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>38.92070360494556</v>
+        <v>44.77462654202359</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>13.38305300964862</v>
+        <v>-0.5828166687585608</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>32.56478574261205</v>
+        <v>31.0648204583941</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>37.66081261517732</v>
+        <v>45.78617347433943</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>24.49130896423158</v>
+        <v>-1.279163170534193</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.76467211404854</v>
+        <v>49.42974282935415</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>50.38912453384231</v>
+        <v>72.32883148859332</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>45.31855015159256</v>
+        <v>55.35219151010187</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>53.93717912618306</v>
+        <v>67.96340679950833</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>58.6727458282239</v>
+        <v>87.58216204105352</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>23.13300694242485</v>
+        <v>5.101138020112586</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>48.248046680828</v>
+        <v>60.07136125753041</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>54.82353551613172</v>
+        <v>78.0360163446166</v>
       </c>
     </row>
   </sheetData>
